--- a/rank_analysis/4-3-analysis.xlsx
+++ b/rank_analysis/4-3-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>769.4</t>
+          <t>248.1</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>625.35</t>
+          <t>257.55</t>
         </is>
       </c>
     </row>
@@ -417,12 +417,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>478.68</t>
+          <t>225.9</t>
         </is>
       </c>
     </row>
@@ -434,12 +434,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>662.82</t>
+          <t>216.81</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>581.788</t>
+          <t>214.408</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>747.881</t>
+          <t>173.239</t>
         </is>
       </c>
     </row>
